--- a/output/biophysical_models/biophysical_glmm_summary.xlsx
+++ b/output/biophysical_models/biophysical_glmm_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenkilleen/Desktop/CODING/seabirds-northern-ecosystems/output/biophysical_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74897185-612A-CC46-A5E3-5D7ECD3BD6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF246715-7303-6647-9A6E-BB5DD0B05674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="30240" windowHeight="19000" xr2:uid="{2856326F-372B-C744-B3A9-BFD58621E6D8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>Arctic</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>-0.05 - 0.40</t>
+  </si>
+  <si>
+    <t>-0.38 - 0.17</t>
   </si>
 </sst>
 </file>
@@ -237,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -278,12 +281,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -603,7 +600,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,10 +652,10 @@
       <c r="E2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="7">
         <v>0.03</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -678,10 +675,10 @@
       <c r="E3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="7">
         <v>0</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -701,10 +698,10 @@
       <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="7">
         <v>0</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="16" t="s">
         <v>24</v>
       </c>
     </row>
@@ -724,10 +721,10 @@
       <c r="E5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="7">
         <v>0</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -741,16 +738,16 @@
       <c r="C6" s="4">
         <v>-9.4241850000000002E-2</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="7">
         <v>0.09</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="7">
         <v>-0.12</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -764,16 +761,16 @@
       <c r="C7" s="4">
         <v>0.29801315</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="7">
         <v>0.12</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="7">
         <v>-0.13</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -793,10 +790,10 @@
       <c r="E8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="7">
         <v>-0.02</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="16" t="s">
         <v>33</v>
       </c>
     </row>
@@ -816,10 +813,10 @@
       <c r="E9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="7">
         <v>-0.05</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -839,10 +836,10 @@
       <c r="E10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="7">
         <v>-0.43</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="16" t="s">
         <v>35</v>
       </c>
     </row>
@@ -862,10 +859,10 @@
       <c r="E11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="7">
         <v>-0.25</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="16" t="s">
         <v>36</v>
       </c>
     </row>
@@ -885,10 +882,10 @@
       <c r="E12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="7">
         <v>-0.02</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -908,10 +905,10 @@
       <c r="E13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="7">
         <v>0.03</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -931,10 +928,10 @@
       <c r="E14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="7">
         <v>0.44</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -949,15 +946,15 @@
         <v>0.73420410000000003</v>
       </c>
       <c r="D15" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="7">
         <v>0.17</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="18">
-        <v>0.17</v>
-      </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="16" t="s">
         <v>42</v>
       </c>
     </row>
